--- a/medicine/Enfance/Olga_Xirinacs/Olga_Xirinacs.xlsx
+++ b/medicine/Enfance/Olga_Xirinacs/Olga_Xirinacs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Olga Xirinacs Díaz (Tarragone, Catalogne, 1936) est une femme de lettres espagnole en langue catalane et castillane. 
 </t>
@@ -511,12 +523,14 @@
           <t>Éléments biographiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Passionnée par les arts et la musique tout autant que par la littérature, elle obtient un diplôme de piano au Conservatoire de Valence. Professeur de piano, elle participe à des projets culturels, anime des associations scoutes, et est élue présidente, en 1975, de l'Òmnium Cultural, une organisation s'employant à réhabiliter la langue et la culture catalanes, bannies au plus fort du régime franquiste[1],[2]. Concomitamment, elle est très active au sein d'un groupe littéraire et poétique, Espiadimonis, créé également en 1975[1].
-En 1976, elle publie ses premiers poèmes dans la collection La dotzena de frares[3]. Elle reçoit un prix aux jeux floraux de Lausanne en cette même année 1976, le Flor natural de la langue catalane. Puis le prix Viola en 1977 à Munich. Elle est avec Mercè Rodoreda une des rares femme honorée du titre de Maître en Gai Savoir des Jeux Floraux de Barcelone (en 1978)[4]. Dans les années 1980, elle publie outre des poèmes, des œuvres en prose : des romans, des essais et des contes, y compris pour enfants[1].
-Plusieurs de ses ouvrages sont par la suite récompensés par d'autres prix de la littérature en langue catalane : Interior amb difunts (Intérieur avec défunts) Prix Josep Pla en 1982, Al meu cap una llosa (Dans ma tête une dalle) Prix Sant Jordi en 1984, et Prix Serra d'Or de la critique pour les romans en 1986, Zona marítima (Zone maritime) Prix Ramon Llull en 1986, Llavis que dansen (Lèvres qui dansent) Prix Carles Riba en 1987, Marina (Paysage marin) Prix Serra d'Or de la crittique pour la littérature enfantine, Enterraments Lleugers (enterrements légers) Prix Sant Joan Prize en 1990, Sense malícia (Sans Malice) Prix de la cité de Palma en  1994, Un cadàver per sopar (Un cadavre pour dîner) Prix de la cité de Badalona de la littérature enfantine en 2000, etc.[4]... En 1990, la Généralité de la Catalogne lui accorde le Creu de Sant Jordi[1].
-Elle a collaboré à plusieurs périodiques : La Vanguardia, Avui, Diari de Tarragona, El Correo Catalán, El Observado, etc[1]... Elle a également enseigné, notamment à l'Université Pompeu Fabra, de Barcelone.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Passionnée par les arts et la musique tout autant que par la littérature, elle obtient un diplôme de piano au Conservatoire de Valence. Professeur de piano, elle participe à des projets culturels, anime des associations scoutes, et est élue présidente, en 1975, de l'Òmnium Cultural, une organisation s'employant à réhabiliter la langue et la culture catalanes, bannies au plus fort du régime franquiste,. Concomitamment, elle est très active au sein d'un groupe littéraire et poétique, Espiadimonis, créé également en 1975.
+En 1976, elle publie ses premiers poèmes dans la collection La dotzena de frares. Elle reçoit un prix aux jeux floraux de Lausanne en cette même année 1976, le Flor natural de la langue catalane. Puis le prix Viola en 1977 à Munich. Elle est avec Mercè Rodoreda une des rares femme honorée du titre de Maître en Gai Savoir des Jeux Floraux de Barcelone (en 1978). Dans les années 1980, elle publie outre des poèmes, des œuvres en prose : des romans, des essais et des contes, y compris pour enfants.
+Plusieurs de ses ouvrages sont par la suite récompensés par d'autres prix de la littérature en langue catalane : Interior amb difunts (Intérieur avec défunts) Prix Josep Pla en 1982, Al meu cap una llosa (Dans ma tête une dalle) Prix Sant Jordi en 1984, et Prix Serra d'Or de la critique pour les romans en 1986, Zona marítima (Zone maritime) Prix Ramon Llull en 1986, Llavis que dansen (Lèvres qui dansent) Prix Carles Riba en 1987, Marina (Paysage marin) Prix Serra d'Or de la crittique pour la littérature enfantine, Enterraments Lleugers (enterrements légers) Prix Sant Joan Prize en 1990, Sense malícia (Sans Malice) Prix de la cité de Palma en  1994, Un cadàver per sopar (Un cadavre pour dîner) Prix de la cité de Badalona de la littérature enfantine en 2000, etc.... En 1990, la Généralité de la Catalogne lui accorde le Creu de Sant Jordi.
+Elle a collaboré à plusieurs périodiques : La Vanguardia, Avui, Diari de Tarragona, El Correo Catalán, El Observado, etc... Elle a également enseigné, notamment à l'Université Pompeu Fabra, de Barcelone.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Honneurs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Une école à Tarragone porte son nom: "Escola Olga Xirinacs"
 </t>
@@ -576,7 +592,9 @@
           <t xml:space="preserve"> Œuvres en prose</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Música de cambra. Barcelone 1982.
@@ -634,7 +652,9 @@
           <t>Poésies</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Botons de tiges grises. Barcelone 1977.
@@ -679,7 +699,9 @@
           <t>Littérature enfantine</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Marina. Illustrations d'Asun Balzola. Barcelone 1986.
@@ -727,7 +749,9 @@
           <t>Participation</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Jo sóc aquell que em dic Gerard, Terres de l'Ebre, Édition Petròpolis, 2010.</t>
         </is>
